--- a/document/Task.xlsx
+++ b/document/Task.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>No.</t>
   </si>
@@ -32,18 +32,12 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Player</t>
-  </si>
-  <si>
     <t>Group of Process</t>
   </si>
   <si>
     <t>Name of Process</t>
   </si>
   <si>
-    <t>Reservation Field</t>
-  </si>
-  <si>
     <t>Manage account</t>
   </si>
   <si>
@@ -53,27 +47,9 @@
     <t>Update profile</t>
   </si>
   <si>
-    <t>View profile (team name, image, rating score, play history, electronic wallet)</t>
-  </si>
-  <si>
-    <t>View bonus score and get voucher from bonus score</t>
-  </si>
-  <si>
-    <t>Reservation Field only</t>
-  </si>
-  <si>
-    <t>Reservation Field and matching competitor</t>
-  </si>
-  <si>
-    <t>Field owner</t>
-  </si>
-  <si>
     <t>Create account</t>
   </si>
   <si>
-    <t>Create account (create name, phone, electronic wallet, set position of field on map)</t>
-  </si>
-  <si>
     <t xml:space="preserve">View tournament </t>
   </si>
   <si>
@@ -83,24 +59,6 @@
     <t>Register to join the tournament</t>
   </si>
   <si>
-    <t>Manage field</t>
-  </si>
-  <si>
-    <t>Set price for field according to the time frame</t>
-  </si>
-  <si>
-    <t>Confirm for reservation request and update field status</t>
-  </si>
-  <si>
-    <t>Rating for team player after match and update field status</t>
-  </si>
-  <si>
-    <t>Update field status manual</t>
-  </si>
-  <si>
-    <t>View field status</t>
-  </si>
-  <si>
     <t>Create tournament</t>
   </si>
   <si>
@@ -116,27 +74,12 @@
     <t>Matching and suggest in same field</t>
   </si>
   <si>
-    <t>Search and matching with another field closed</t>
-  </si>
-  <si>
     <t>Calculate rating score</t>
   </si>
   <si>
-    <t>Receive feedback and calculate rating score</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Player use mobile app, input team name, electronic wallet, phone number to create account. Player can view profile and update. When player using app reservation field will received bonus score and play can use it to change into voucher or sale off for next reservation.</t>
-  </si>
-  <si>
-    <t>Player have full team, team member will play to gether. Player using app to reservation field.</t>
-  </si>
-  <si>
-    <t>Player have a team and need to friendly match with another team. Player using app to reservation field and matching suitable competitor.</t>
-  </si>
-  <si>
     <t>Player using app to view the tournament are going on</t>
   </si>
   <si>
@@ -146,41 +89,307 @@
     <t>Field owner use mobile app to create account with name, phone number, electronic wallet and position of filed input. Field owner can view and update information account</t>
   </si>
   <si>
-    <t>With difference time frame, field owner can set difference price.</t>
-  </si>
-  <si>
-    <t>Field owner received a reservation request and confirm field status is ok to identity reservation successful.</t>
-  </si>
-  <si>
-    <t>Field owner must rating for team player atter match to change status of field. Field owner can record score.</t>
-  </si>
-  <si>
     <t>P.I.C</t>
   </si>
   <si>
-    <t>When have player not using app to reservation, field owener can change field status to busy.</t>
-  </si>
-  <si>
-    <t>Field owner can view status off all fields.</t>
-  </si>
-  <si>
     <t>Field owner can input information to create a tournament</t>
   </si>
   <si>
     <t>Matching competitor and suggest nearly fields.</t>
   </si>
   <si>
-    <t>With feedback result, calculate rating score.</t>
-  </si>
-  <si>
     <t>Matching competitor have rating score equal or approximately when have player reservation in field.</t>
+  </si>
+  <si>
+    <t>Login/logout</t>
+  </si>
+  <si>
+    <t>View profile (team name, avatar, rating score, play history, bonus points, electronic wallet)</t>
+  </si>
+  <si>
+    <t>Reservate Field</t>
+  </si>
+  <si>
+    <t>Reservate Field only</t>
+  </si>
+  <si>
+    <t>Rate field</t>
+  </si>
+  <si>
+    <t>Rate quality of field</t>
+  </si>
+  <si>
+    <t>Rate competitors</t>
+  </si>
+  <si>
+    <t>Rate skills</t>
+  </si>
+  <si>
+    <t>Report competitors</t>
+  </si>
+  <si>
+    <t>Rating for team player after match</t>
+  </si>
+  <si>
+    <t>Matching competitors and suggest nearby fields</t>
+  </si>
+  <si>
+    <t>Manage rewards</t>
+  </si>
+  <si>
+    <t>View list voucher</t>
+  </si>
+  <si>
+    <t>Manage and exchange voucher from bonus points</t>
+  </si>
+  <si>
+    <t>View field list</t>
+  </si>
+  <si>
+    <t>Delete field type</t>
+  </si>
+  <si>
+    <t>View field timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>Payment between field owner and system</t>
+  </si>
+  <si>
+    <t>Payment between player and system</t>
+  </si>
+  <si>
+    <t>Receive feedback and calculate rating score for player</t>
+  </si>
+  <si>
+    <t>Receive feedback and calculate rating score for field</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Manage revenue</t>
+  </si>
+  <si>
+    <t>Percentage revenue from field's price</t>
+  </si>
+  <si>
+    <t>Revenue statistical</t>
+  </si>
+  <si>
+    <t>Edit profile</t>
+  </si>
+  <si>
+    <t>Player use mobile app, input team name, electronic wallet, phone number to create account. Player can view profile and update. When player using app reservate field will received bonus score and play can use it to change into voucher or sale off for next reservation.</t>
+  </si>
+  <si>
+    <t>Player use mobile app, using bonus point to exchange voucher sale off field fee.</t>
+  </si>
+  <si>
+    <t>Reservate Field and matching player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When payment? </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Manage reservation request</t>
+  </si>
+  <si>
+    <t>View all reservation request</t>
+  </si>
+  <si>
+    <t>Remove reservation request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player use mobile app -&gt; choose expected field -&gt; choose field type -&gt; choose date -&gt; view timeline of field -&gt; reservate field with input start time and duration (player can add voucher when reservate) -&gt; payment online -&gt; go to reservation request page. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/ Player use mobile app -&gt; choose expected field -&gt; choose field type -&gt; choose date -&gt; suggest player have same rank point (suggest player near by field) -&gt; choose competitor and payment online
+2/ Player use mobile app -&gt; choose expected field -&gt; choose field type -&gt; choose date -&gt; view timeline of field -&gt; reservate field with input start time and duration (player can add voucher when reservate) -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">payment online </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; go to reservation request page. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>waiting find competitor)</t>
+    </r>
+  </si>
+  <si>
+    <t>Confirm matching player and notify to player</t>
+  </si>
+  <si>
+    <t>Player use mobile app -&gt; view list reservation request</t>
+  </si>
+  <si>
+    <t>Receive notification about matching player -&gt; confirm -&gt; payment online.</t>
+  </si>
+  <si>
+    <t>Rate skill with 5 stars after match finish. If not rate not receive bonus points.</t>
+  </si>
+  <si>
+    <t>Comment about competitors</t>
+  </si>
+  <si>
+    <t>Comment after match finish.</t>
+  </si>
+  <si>
+    <t>Report competitor if afk or bad attitude</t>
+  </si>
+  <si>
+    <t>Rate quality of field with 5 stars after match finish.</t>
+  </si>
+  <si>
+    <t>Comment about services of field owner</t>
+  </si>
+  <si>
+    <t>Comment about services</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Create account (create name, field's name, phone, electronic wallet)</t>
+  </si>
+  <si>
+    <t>Field owner (using web application)</t>
+  </si>
+  <si>
+    <t>Player (using mobile application)</t>
+  </si>
+  <si>
+    <t>Field owner use web application -&gt; view list of field and status of field</t>
+  </si>
+  <si>
+    <t>Manage field and field timeline</t>
+  </si>
+  <si>
+    <t>Disable field</t>
+  </si>
+  <si>
+    <t>Set timeline and price for time frame</t>
+  </si>
+  <si>
+    <t>Field owner access website -&gt; change status field to disable</t>
+  </si>
+  <si>
+    <t>Field owner access website -&gt; create time frame with start and end -&gt; set price for time frame</t>
+  </si>
+  <si>
+    <t>View field timeline for each field</t>
+  </si>
+  <si>
+    <t>Field owner click to field -&gt; view field timeline</t>
+  </si>
+  <si>
+    <t>Edit timeline</t>
+  </si>
+  <si>
+    <t>Field owner click to field -&gt; edit field timeline</t>
+  </si>
+  <si>
+    <t>Search field near by position</t>
+  </si>
+  <si>
+    <t>Player use mobile app -&gt; reservation field -&gt; suggest field near by position</t>
+  </si>
+  <si>
+    <t>Search field with name, time, field type…</t>
+  </si>
+  <si>
+    <t>Player use mobile app -&gt; reservation field -&gt; search field with input data</t>
+  </si>
+  <si>
+    <t>Field owner click to field -&gt; disable timeline of field with start time and endtime</t>
+  </si>
+  <si>
+    <t>Disable timeline of field (reservate field manually)</t>
+  </si>
+  <si>
+    <t>Field owner is requested to record score after match finish</t>
+  </si>
+  <si>
+    <t>Manage field owner account</t>
+  </si>
+  <si>
+    <t>Create field for field owner</t>
+  </si>
+  <si>
+    <t>Edit field for field owner</t>
+  </si>
+  <si>
+    <t>Create field type</t>
+  </si>
+  <si>
+    <t>Remove field type</t>
+  </si>
+  <si>
+    <t>1/Bên mình phải kiểm tra chất lượng sân để tạo sân, giao diện tạo sân là của admin</t>
+  </si>
+  <si>
+    <t>4/Giá sân và giá cho từng khung giờ chủ sân set khác nhau</t>
+  </si>
+  <si>
+    <t>5/ Khi nào thì người chơi thực hiện trả phí</t>
+  </si>
+  <si>
+    <t>6/ Khi nào thì chuyển tiền cho chủ sân</t>
+  </si>
+  <si>
+    <t>2/ Paypal để thanh toán</t>
+  </si>
+  <si>
+    <t>3/Màn hình quản lý thời gian rảnh và quản lý request đặt sân riêng, thời gian rảnh sẽ luôn luôn trắng cho đến khi nào hết sân thì mới đỏ</t>
+  </si>
+  <si>
+    <t>7/ Thời gian chờ cáp kèo là bao lâu, sẽ hủy nếu ko tìm ra người chơi, phục vụ cho người chơi khác trước khi trận đấu bắt đầu bao lâu?</t>
+  </si>
+  <si>
+    <t>8/ Nếu cáp kèo và chuyển phí rồi mà cancel thì sẽ hồi bao nhiêu phí và phải thực hiện trước khi trận đấu diễn ra là bao lâu?</t>
+  </si>
+  <si>
+    <t>3/ Timeline của chủ sân là timeline cho từng sân, timeline cho người dùng là timeline cho một cụm sân</t>
+  </si>
+  <si>
+    <t>Cơ chế tính điểm sẽ như đánh rank của Lol, mỗi đội sẽ có điểm vốn, nếu đội mạnh gặp đội yếu mà thắng thì cộng ít điểm và ngược lại trừ điểm cũng vậy</t>
+  </si>
+  <si>
+    <t>Functions Analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +397,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +439,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -276,48 +519,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,352 +1006,934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F23"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D1" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
+      <c r="B4" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="32">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="33">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="32">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
+      <c r="B20" s="17"/>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="32">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="46">
+        <v>4</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="32">
+        <v>1</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="34">
+        <v>1</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="32">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="43">
+        <v>4</v>
+      </c>
+      <c r="G36" s="42"/>
+      <c r="H36" s="44"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="36">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="36">
+        <v>2</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="36">
+        <v>2</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="32">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="D48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="32">
+        <v>3</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D51" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D52" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D53" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D58" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D59" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C22"/>
+  <mergeCells count="51">
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/Task.xlsx
+++ b/document/Task.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
   <si>
     <t>No.</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Delete field type</t>
   </si>
   <si>
-    <t>View field timeline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Payment </t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Percentage revenue from field's price</t>
   </si>
   <si>
-    <t>Revenue statistical</t>
-  </si>
-  <si>
     <t>Edit profile</t>
   </si>
   <si>
@@ -323,12 +317,6 @@
     <t>4/Giá sân và giá cho từng khung giờ chủ sân set khác nhau</t>
   </si>
   <si>
-    <t>5/ Khi nào thì người chơi thực hiện trả phí</t>
-  </si>
-  <si>
-    <t>6/ Khi nào thì chuyển tiền cho chủ sân</t>
-  </si>
-  <si>
     <t>2/ Paypal để thanh toán</t>
   </si>
   <si>
@@ -336,9 +324,6 @@
   </si>
   <si>
     <t>7/ Thời gian chờ cáp kèo là bao lâu, sẽ hủy nếu ko tìm ra người chơi, phục vụ cho người chơi khác trước khi trận đấu bắt đầu bao lâu?</t>
-  </si>
-  <si>
-    <t>8/ Nếu cáp kèo và chuyển phí rồi mà cancel thì sẽ hồi bao nhiêu phí và phải thực hiện trước khi trận đấu diễn ra là bao lâu?</t>
   </si>
   <si>
     <t>3/ Timeline của chủ sân là timeline cho từng sân, timeline cho người dùng là timeline cho một cụm sân</t>
@@ -367,6 +352,39 @@
   </si>
   <si>
     <t>HuanPM</t>
+  </si>
+  <si>
+    <t>8/ Nếu cáp kèo và chuyển phí rồi mà cancel thì sẽ hồi bao nhiêu phí và phải thực hiện trước khi trận đấu diễn ra là bao lâu, người chơi bị cancel kèo sẽ được matching với trận đấu khác như thế nào?</t>
+  </si>
+  <si>
+    <t>6/ Khi nào thì chuyển tiền cho chủ sân?</t>
+  </si>
+  <si>
+    <t>5/ Khi nào thì người chơi thực hiện trả phí đối với kèo cáp, có nên trả trước ko hay đợi 2 bên cùng đồng ý rồi trả, nên trả 1 nửa rồi chia lại đối với kèo có cược hay sao?</t>
+  </si>
+  <si>
+    <t>Admin receive request about field owner and verfify to create field for field owner</t>
+  </si>
+  <si>
+    <t>Change type of field</t>
+  </si>
+  <si>
+    <t>When field owner request, remove field from field list of field owener</t>
+  </si>
+  <si>
+    <t>Field type: 5vs5, 7vs7, 11vs11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commissions from field price </t>
+  </si>
+  <si>
+    <t>Sales statistical</t>
+  </si>
+  <si>
+    <t>For date, for month, for year</t>
+  </si>
+  <si>
+    <t>10/ Tìm kiếm người chơi unfair thì có cần confirm từ bên request đặt sân trước hay ko?</t>
   </si>
 </sst>
 </file>
@@ -977,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1017,10 +1035,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
@@ -1031,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
@@ -1040,14 +1058,14 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1071,7 +1089,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="8"/>
@@ -1104,14 +1122,14 @@
         <v>37</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1140,14 +1158,14 @@
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="20">
         <v>1</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -1157,19 +1175,19 @@
       <c r="B11" s="11"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="20">
         <v>1</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1179,17 +1197,17 @@
       <c r="B12" s="11"/>
       <c r="C12" s="19"/>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1199,10 +1217,10 @@
       <c r="B13" s="11"/>
       <c r="C13" s="19"/>
       <c r="D13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="14"/>
@@ -1214,20 +1232,20 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1237,10 +1255,10 @@
       <c r="B15" s="11"/>
       <c r="C15" s="23"/>
       <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="14"/>
@@ -1253,7 +1271,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="24"/>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="8"/>
@@ -1272,14 +1290,14 @@
         <v>32</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="8">
         <v>2</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1289,10 +1307,10 @@
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="14"/>
@@ -1308,7 +1326,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="14"/>
@@ -1326,14 +1344,14 @@
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="8">
         <v>2</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1343,10 +1361,10 @@
       <c r="B21" s="11"/>
       <c r="C21" s="15"/>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="14"/>
@@ -1393,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>20</v>
@@ -1409,7 +1427,7 @@
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1460,20 +1478,20 @@
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" s="39">
         <v>1</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1483,10 +1501,10 @@
       <c r="B29" s="36"/>
       <c r="C29" s="11"/>
       <c r="D29" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>77</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>79</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="14"/>
@@ -1499,17 +1517,17 @@
       <c r="B30" s="36"/>
       <c r="C30" s="11"/>
       <c r="D30" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="8">
         <v>1</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1519,10 +1537,10 @@
       <c r="B31" s="36"/>
       <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>80</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="14"/>
@@ -1535,10 +1553,10 @@
       <c r="B32" s="36"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="14"/>
@@ -1551,10 +1569,10 @@
       <c r="B33" s="36"/>
       <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="14"/>
@@ -1562,337 +1580,340 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="46">
+        <v>2</v>
+      </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="47" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="36"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="48">
+        <v>4</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="E35" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="46">
-        <v>2</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>33</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="48">
-        <v>4</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="49"/>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="50">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>34</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>14</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="50">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F37" s="51"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="C38" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="50">
+        <v>2</v>
+      </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="25" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="19"/>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="50">
-        <v>2</v>
-      </c>
+      <c r="F39" s="51"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="25" t="s">
-        <v>112</v>
-      </c>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="19"/>
-      <c r="C40" s="15"/>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D40" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="51"/>
+      <c r="F40" s="50">
+        <v>2</v>
+      </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="19"/>
-      <c r="C41" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C41" s="15"/>
       <c r="D41" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="50">
-        <v>2</v>
-      </c>
+      <c r="F41" s="51"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>39</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="26"/>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>40</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
+      <c r="E43" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="F44" s="8"/>
       <c r="G44" s="14"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="18"/>
+      <c r="D45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="F45" s="8"/>
       <c r="G45" s="14"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="E46" s="13"/>
       <c r="F46" s="8"/>
       <c r="G46" s="14"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="8"/>
+      <c r="C47" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="8">
+        <v>3</v>
+      </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="25" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="C48" s="19"/>
       <c r="D48" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="8">
-        <v>3</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>46</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D51" s="52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D52" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D55" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D56" s="1" t="s">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D57" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D62" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
     <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="H30:H33"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C21"/>
@@ -1900,48 +1921,48 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="H4:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H21"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="B4:B23"/>
-    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="B24:B35"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="H47:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/document/Task.xlsx
+++ b/document/Task.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
   <si>
     <t>No.</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>10/ Tìm kiếm người chơi unfair thì có cần confirm từ bên request đặt sân trước hay ko?</t>
+  </si>
+  <si>
+    <t>Thông báo promotion đến người dùng</t>
+  </si>
+  <si>
+    <t>Người dùng nhập thời gian muốn đá -&gt; lựa chọn -&gt; ko có thì mới view timeline</t>
+  </si>
+  <si>
+    <t>Giá sân và promotion do chủ quyết định</t>
+  </si>
+  <si>
+    <t>Matching đến sân bất kỳ phù hợp</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,28 +1922,43 @@
         <v>101</v>
       </c>
     </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="C14:C16"/>
@@ -1948,21 +1975,26 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/document/Task.xlsx
+++ b/document/Task.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
   <si>
     <t>No.</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Delete field type</t>
   </si>
   <si>
-    <t>View field timeline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Payment </t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Percentage revenue from field's price</t>
   </si>
   <si>
-    <t>Revenue statistical</t>
-  </si>
-  <si>
     <t>Edit profile</t>
   </si>
   <si>
@@ -323,12 +317,6 @@
     <t>4/Giá sân và giá cho từng khung giờ chủ sân set khác nhau</t>
   </si>
   <si>
-    <t>5/ Khi nào thì người chơi thực hiện trả phí</t>
-  </si>
-  <si>
-    <t>6/ Khi nào thì chuyển tiền cho chủ sân</t>
-  </si>
-  <si>
     <t>2/ Paypal để thanh toán</t>
   </si>
   <si>
@@ -336,9 +324,6 @@
   </si>
   <si>
     <t>7/ Thời gian chờ cáp kèo là bao lâu, sẽ hủy nếu ko tìm ra người chơi, phục vụ cho người chơi khác trước khi trận đấu bắt đầu bao lâu?</t>
-  </si>
-  <si>
-    <t>8/ Nếu cáp kèo và chuyển phí rồi mà cancel thì sẽ hồi bao nhiêu phí và phải thực hiện trước khi trận đấu diễn ra là bao lâu?</t>
   </si>
   <si>
     <t>3/ Timeline của chủ sân là timeline cho từng sân, timeline cho người dùng là timeline cho một cụm sân</t>
@@ -367,6 +352,51 @@
   </si>
   <si>
     <t>HuanPM</t>
+  </si>
+  <si>
+    <t>8/ Nếu cáp kèo và chuyển phí rồi mà cancel thì sẽ hồi bao nhiêu phí và phải thực hiện trước khi trận đấu diễn ra là bao lâu, người chơi bị cancel kèo sẽ được matching với trận đấu khác như thế nào?</t>
+  </si>
+  <si>
+    <t>6/ Khi nào thì chuyển tiền cho chủ sân?</t>
+  </si>
+  <si>
+    <t>5/ Khi nào thì người chơi thực hiện trả phí đối với kèo cáp, có nên trả trước ko hay đợi 2 bên cùng đồng ý rồi trả, nên trả 1 nửa rồi chia lại đối với kèo có cược hay sao?</t>
+  </si>
+  <si>
+    <t>Admin receive request about field owner and verfify to create field for field owner</t>
+  </si>
+  <si>
+    <t>Change type of field</t>
+  </si>
+  <si>
+    <t>When field owner request, remove field from field list of field owener</t>
+  </si>
+  <si>
+    <t>Field type: 5vs5, 7vs7, 11vs11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commissions from field price </t>
+  </si>
+  <si>
+    <t>Sales statistical</t>
+  </si>
+  <si>
+    <t>For date, for month, for year</t>
+  </si>
+  <si>
+    <t>10/ Tìm kiếm người chơi unfair thì có cần confirm từ bên request đặt sân trước hay ko?</t>
+  </si>
+  <si>
+    <t>Thông báo promotion đến người dùng</t>
+  </si>
+  <si>
+    <t>Người dùng nhập thời gian muốn đá -&gt; lựa chọn -&gt; ko có thì mới view timeline</t>
+  </si>
+  <si>
+    <t>Giá sân và promotion do chủ quyết định</t>
+  </si>
+  <si>
+    <t>Matching đến sân bất kỳ phù hợp</t>
   </si>
 </sst>
 </file>
@@ -977,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +1027,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1017,10 +1047,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
@@ -1031,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
@@ -1040,14 +1070,14 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1071,7 +1101,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="8"/>
@@ -1104,14 +1134,14 @@
         <v>37</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1140,14 +1170,14 @@
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="20">
         <v>1</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -1157,19 +1187,19 @@
       <c r="B11" s="11"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="20">
         <v>1</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1179,17 +1209,17 @@
       <c r="B12" s="11"/>
       <c r="C12" s="19"/>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1199,10 +1229,10 @@
       <c r="B13" s="11"/>
       <c r="C13" s="19"/>
       <c r="D13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="14"/>
@@ -1214,20 +1244,20 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1237,10 +1267,10 @@
       <c r="B15" s="11"/>
       <c r="C15" s="23"/>
       <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="14"/>
@@ -1253,7 +1283,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="24"/>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="8"/>
@@ -1272,14 +1302,14 @@
         <v>32</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="8">
         <v>2</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1289,10 +1319,10 @@
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="14"/>
@@ -1308,7 +1338,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="14"/>
@@ -1326,14 +1356,14 @@
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="8">
         <v>2</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1343,10 +1373,10 @@
       <c r="B21" s="11"/>
       <c r="C21" s="15"/>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="14"/>
@@ -1393,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>20</v>
@@ -1409,7 +1439,7 @@
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1460,20 +1490,20 @@
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" s="39">
         <v>1</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1483,10 +1513,10 @@
       <c r="B29" s="36"/>
       <c r="C29" s="11"/>
       <c r="D29" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>77</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>79</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="14"/>
@@ -1499,17 +1529,17 @@
       <c r="B30" s="36"/>
       <c r="C30" s="11"/>
       <c r="D30" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="8">
         <v>1</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1519,10 +1549,10 @@
       <c r="B31" s="36"/>
       <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>80</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="14"/>
@@ -1535,10 +1565,10 @@
       <c r="B32" s="36"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="14"/>
@@ -1551,10 +1581,10 @@
       <c r="B33" s="36"/>
       <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="14"/>
@@ -1562,337 +1592,396 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="46">
+        <v>2</v>
+      </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="47" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="36"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="48">
+        <v>4</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="E35" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="46">
-        <v>2</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>33</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="48">
-        <v>4</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="49"/>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="50">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>34</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>14</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="50">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F37" s="51"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="C38" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="50">
+        <v>2</v>
+      </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="25" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="19"/>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="50">
-        <v>2</v>
-      </c>
+      <c r="F39" s="51"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="25" t="s">
-        <v>112</v>
-      </c>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="19"/>
-      <c r="C40" s="15"/>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D40" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="51"/>
+      <c r="F40" s="50">
+        <v>2</v>
+      </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="19"/>
-      <c r="C41" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C41" s="15"/>
       <c r="D41" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="50">
-        <v>2</v>
-      </c>
+      <c r="F41" s="51"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>39</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="26"/>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>40</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
+      <c r="E43" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="F44" s="8"/>
       <c r="G44" s="14"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="18"/>
+      <c r="D45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="F45" s="8"/>
       <c r="G45" s="14"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="E46" s="13"/>
       <c r="F46" s="8"/>
       <c r="G46" s="14"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="8"/>
+      <c r="C47" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="8">
+        <v>3</v>
+      </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="25" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="C48" s="19"/>
       <c r="D48" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="8">
-        <v>3</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>46</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D51" s="52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D52" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D55" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D56" s="1" t="s">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D57" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D62" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
     <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="H30:H33"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C21"/>
@@ -1900,48 +1989,12 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B4:B23"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F30:F33"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
